--- a/Final_Project/Progress/National_Parks_Visitors.xlsx
+++ b/Final_Project/Progress/National_Parks_Visitors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tr1ee/Desktop/INFCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC01CF9-BAE5-6E45-864C-F7CFE2EC0745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1365534C-D981-F546-81AA-EAD920581B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="740" windowWidth="28160" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,15 +22,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
-    <t>Park Name</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
-    <t>Number of Visitors</t>
-  </si>
-  <si>
     <t>Crater Lake National Park</t>
   </si>
   <si>
@@ -140,6 +134,12 @@
   </si>
   <si>
     <t>nearly 600000</t>
+  </si>
+  <si>
+    <t>ParkName</t>
+  </si>
+  <si>
+    <t>NumberOfVisitors</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -493,25 +493,27 @@
     <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>559976</v>
@@ -519,54 +521,54 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <v>1709623</v>
@@ -574,10 +576,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>3417106</v>
@@ -585,21 +587,21 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1">
         <v>703659</v>
@@ -607,10 +609,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1">
         <v>357069</v>
@@ -618,32 +620,32 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1">
         <v>908000</v>
@@ -651,24 +653,24 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Final_Project/Progress/National_Parks_Visitors.xlsx
+++ b/Final_Project/Progress/National_Parks_Visitors.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tr1ee/Desktop/INFCS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/77ea3068cd3876b0/Documents/pythonrepository/PythonFinal/Final_Project/Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1365534C-D981-F546-81AA-EAD920581B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{1365534C-D981-F546-81AA-EAD920581B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7246D4E-684D-43DA-ACDD-6E152718F9C7}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="740" windowWidth="28160" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="86">
   <si>
     <t>Location</t>
   </si>
@@ -140,13 +154,154 @@
   </si>
   <si>
     <t>NumberOfVisitors</t>
+  </si>
+  <si>
+    <t>Park Name</t>
+  </si>
+  <si>
+    <t>Number of Visitors</t>
+  </si>
+  <si>
+    <t>Nearly 3 million</t>
+  </si>
+  <si>
+    <t>Nearly 1.2 million</t>
+  </si>
+  <si>
+    <t>Nearly 600,000</t>
+  </si>
+  <si>
+    <t>Average Temperature (Spring)</t>
+  </si>
+  <si>
+    <t>Average Weather Condition (Spring)</t>
+  </si>
+  <si>
+    <t>Average Temperature (Summer)</t>
+  </si>
+  <si>
+    <t>Average Weather Condition (Summer)</t>
+  </si>
+  <si>
+    <t>Average Temperature (Fall)</t>
+  </si>
+  <si>
+    <t>Average Weather Condition (Fall)</t>
+  </si>
+  <si>
+    <t>Average Temperature (Winter)</t>
+  </si>
+  <si>
+    <t>Average Weather Condition (Winter)</t>
+  </si>
+  <si>
+    <t>Transportation Cost (from Pittsburgh, PA)</t>
+  </si>
+  <si>
+    <t>Other Expense</t>
+  </si>
+  <si>
+    <t>Terrain</t>
+  </si>
+  <si>
+    <t>Climate</t>
+  </si>
+  <si>
+    <t>Crowds</t>
+  </si>
+  <si>
+    <t>55°F</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>68°F</t>
+  </si>
+  <si>
+    <t>Cloudy</t>
+  </si>
+  <si>
+    <t>60°F</t>
+  </si>
+  <si>
+    <t>Rainy</t>
+  </si>
+  <si>
+    <t>40°F</t>
+  </si>
+  <si>
+    <t>Snowy</t>
+  </si>
+  <si>
+    <t>Mountainous</t>
+  </si>
+  <si>
+    <t>Temperate</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>45°F</t>
+  </si>
+  <si>
+    <t>70°F</t>
+  </si>
+  <si>
+    <t>35°F</t>
+  </si>
+  <si>
+    <t>Coastal</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>65°F</t>
+  </si>
+  <si>
+    <t>50°F</t>
+  </si>
+  <si>
+    <t>30°F</t>
+  </si>
+  <si>
+    <t>Continental</t>
+  </si>
+  <si>
+    <t>75°F</t>
+  </si>
+  <si>
+    <t>85°F</t>
+  </si>
+  <si>
+    <t>Desert</t>
+  </si>
+  <si>
+    <t>95°F</t>
+  </si>
+  <si>
+    <t>80°F</t>
+  </si>
+  <si>
+    <t>Arid</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Plains</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,16 +309,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -171,14 +344,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFE3E3E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE3E3E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE3E3E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE3E3E3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,33 +725,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="3" max="4" width="20.44140625" customWidth="1"/>
+    <col min="7" max="21" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -518,8 +809,57 @@
       <c r="C2" s="1">
         <v>559976</v>
       </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>559976</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="7">
+        <v>600</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>300</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -529,8 +869,57 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="7">
+        <v>800</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>400</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -540,8 +929,57 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>600</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -551,8 +989,57 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" s="7">
+        <v>700</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>350</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -562,8 +1049,57 @@
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>500</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -573,8 +1109,57 @@
       <c r="C7" s="1">
         <v>1709623</v>
       </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1709623</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="7">
+        <v>800</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>400</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -584,8 +1169,57 @@
       <c r="C8" s="1">
         <v>3417106</v>
       </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3417106</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="7">
+        <v>1200</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>700</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -595,8 +1229,57 @@
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="7">
+        <v>900</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>450</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -606,8 +1289,57 @@
       <c r="C10" s="1">
         <v>703659</v>
       </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="5">
+        <v>703659</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7">
+        <v>1500</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>800</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -617,8 +1349,57 @@
       <c r="C11" s="1">
         <v>357069</v>
       </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="5">
+        <v>357069</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>550</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -628,8 +1409,57 @@
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="7">
+        <v>1200</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>600</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -639,8 +1469,57 @@
       <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="7">
+        <v>1000</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>500</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -650,8 +1529,57 @@
       <c r="C14" s="1">
         <v>908000</v>
       </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="5">
+        <v>908000</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" s="7">
+        <v>1300</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>700</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -661,8 +1589,57 @@
       <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" s="7">
+        <v>900</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>450</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -671,9 +1648,72 @@
       </c>
       <c r="C16" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="7">
+        <v>1100</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>600</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83E6C48-7DBE-4145-ACDD-12848032FF00}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>